--- a/biology/Médecine/Jules_Bernard_Luys/Jules_Bernard_Luys.xlsx
+++ b/biology/Médecine/Jules_Bernard_Luys/Jules_Bernard_Luys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Bernard Luys, né le 17 août 1828 à Paris et mort le 21 août 1897 à Divonne-les-Bains, est un neurologue, neuroanatomiste et aliéniste français. On lui doit plusieurs atlas du système nerveux central illustrés par la photographie. Son nom reste attaché à la première description du noyau sous-thalamique (ou corps de Luys) en 1865.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après sa thèse de doctorat sous la direction de Charles Robin (1821-1885) et consacrée à l'histopathologie de la tuberculose (1857), Luys est nommé médecin des hôpitaux de Paris en 1862 et se consacre à la neurologie, publiant dès 1865 un important traité de neuroanatomie illustré par ses propres dessins d'excellente facture. Il y fait notamment la première description du noyau centro-médian du thalamus et du noyau sous-thalamique qu'il désigne de façon approximative comme la « bandelette accessoire des olives supérieures », ce dernier terme référant, dans la description de Luys, aux noyaux rouges.
 Outre son goût pour le dessin anatomique, Luys est aussi le premier à utiliser la photographie encore naissante pour établir une Iconographie photographique des centres nerveux (1873). Il publiera par la suite un ouvrage plus grand public, Le Cerveau et ses fonctions, qui présente une synthèse très personnelle des connaissances contemporaines sur cet organe. Dans sa traduction anglophone, cet ouvrage est un succès de librairie. Sa qualité de médecin et scientifique est reconnue tant par ses pairs au travers de son élection à l'Académie de médecine en 1877 que par ses contemporains qui le consacrent chevalier de la Légion d'honneur, la même année.
@@ -549,10 +563,12 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Corps de Luys : noyau sous-thalamique (ou subtahalmique), décrit en 1865, longtemps désigné sous le nom de « corps de Luys » en son honneur par Auguste Forel.
-Syndrome du corps de Luys[1] : hémiballisme.</t>
+Syndrome du corps de Luys : hémiballisme.</t>
         </is>
       </c>
     </row>
@@ -580,7 +596,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Études d'histologie pathologique sur le mode d'apparition et l'évolution des tubercules dans le tissu pulmonaire, [thèse de médecine présentée le 28 décembre 1857, Paris], 1857.
 Doit-on admettre une fièvre puerpérale ? [thèse soutenue pour le concours de l'agrégation de médecine à la faculté de médecine de Paris, le 27 février 1860], Imprimerie de Schiller ainé (Paris), 1860.
